--- a/po_analysis_by_asin/B0BRR1MPTX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR1MPTX_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,30 +522,6 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>240</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -557,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,14 +593,6 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>990</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BRR1MPTX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR1MPTX_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,285 @@
       </c>
       <c r="B6" t="n">
         <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C2" t="n">
+        <v>93.41071888335037</v>
+      </c>
+      <c r="D2" t="n">
+        <v>460.2326808143995</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>217</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.85665079355153</v>
+      </c>
+      <c r="D3" t="n">
+        <v>399.3156969030751</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.119385226610473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>367.9231862279708</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>168</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.31047828924579</v>
+      </c>
+      <c r="D5" t="n">
+        <v>351.4906547800385</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>159</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-21.25680093217206</v>
+      </c>
+      <c r="D6" t="n">
+        <v>348.9623699958609</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>130</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-42.73166069028922</v>
+      </c>
+      <c r="D7" t="n">
+        <v>313.2733032493877</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>120</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-68.79713705559487</v>
+      </c>
+      <c r="D8" t="n">
+        <v>298.2872876101627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>110</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-68.63753916941161</v>
+      </c>
+      <c r="D9" t="n">
+        <v>299.4116694605044</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-68.60878497798195</v>
+      </c>
+      <c r="D10" t="n">
+        <v>279.0918704509562</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-101.0922497599437</v>
+      </c>
+      <c r="D11" t="n">
+        <v>290.4085391871518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-97.21495122205083</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.9912263312399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>71</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-116.0204751610123</v>
+      </c>
+      <c r="D13" t="n">
+        <v>255.6745412639911</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>62</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-126.2679975513668</v>
+      </c>
+      <c r="D14" t="n">
+        <v>249.5218262655057</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>52</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-144.4009975264809</v>
+      </c>
+      <c r="D15" t="n">
+        <v>236.6094037534338</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>42</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-127.9359430133345</v>
+      </c>
+      <c r="D16" t="n">
+        <v>244.565901380842</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-153.1789078061049</v>
+      </c>
+      <c r="D17" t="n">
+        <v>215.4274363773978</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-150.3585970363426</v>
+      </c>
+      <c r="D18" t="n">
+        <v>213.0587825959998</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRR1MPTX_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRR1MPTX_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>275</v>
       </c>
-      <c r="C2" t="n">
-        <v>93.41071888335037</v>
-      </c>
-      <c r="D2" t="n">
-        <v>460.2326808143995</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>217</v>
       </c>
-      <c r="C3" t="n">
-        <v>32.85665079355153</v>
-      </c>
-      <c r="D3" t="n">
-        <v>399.3156969030751</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>178</v>
       </c>
-      <c r="C4" t="n">
-        <v>-2.119385226610473</v>
-      </c>
-      <c r="D4" t="n">
-        <v>367.9231862279708</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>168</v>
       </c>
-      <c r="C5" t="n">
-        <v>-11.31047828924579</v>
-      </c>
-      <c r="D5" t="n">
-        <v>351.4906547800385</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>159</v>
       </c>
-      <c r="C6" t="n">
-        <v>-21.25680093217206</v>
-      </c>
-      <c r="D6" t="n">
-        <v>348.9623699958609</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>130</v>
       </c>
-      <c r="C7" t="n">
-        <v>-42.73166069028922</v>
-      </c>
-      <c r="D7" t="n">
-        <v>313.2733032493877</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>120</v>
       </c>
-      <c r="C8" t="n">
-        <v>-68.79713705559487</v>
-      </c>
-      <c r="D8" t="n">
-        <v>298.2872876101627</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>110</v>
       </c>
-      <c r="C9" t="n">
-        <v>-68.63753916941161</v>
-      </c>
-      <c r="D9" t="n">
-        <v>299.4116694605044</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>100</v>
       </c>
-      <c r="C10" t="n">
-        <v>-68.60878497798195</v>
-      </c>
-      <c r="D10" t="n">
-        <v>279.0918704509562</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>91</v>
       </c>
-      <c r="C11" t="n">
-        <v>-101.0922497599437</v>
-      </c>
-      <c r="D11" t="n">
-        <v>290.4085391871518</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>81</v>
       </c>
-      <c r="C12" t="n">
-        <v>-97.21495122205083</v>
-      </c>
-      <c r="D12" t="n">
-        <v>273.9912263312399</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>71</v>
       </c>
-      <c r="C13" t="n">
-        <v>-116.0204751610123</v>
-      </c>
-      <c r="D13" t="n">
-        <v>255.6745412639911</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>62</v>
       </c>
-      <c r="C14" t="n">
-        <v>-126.2679975513668</v>
-      </c>
-      <c r="D14" t="n">
-        <v>249.5218262655057</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>52</v>
       </c>
-      <c r="C15" t="n">
-        <v>-144.4009975264809</v>
-      </c>
-      <c r="D15" t="n">
-        <v>236.6094037534338</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>42</v>
       </c>
-      <c r="C16" t="n">
-        <v>-127.9359430133345</v>
-      </c>
-      <c r="D16" t="n">
-        <v>244.565901380842</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>33</v>
       </c>
-      <c r="C17" t="n">
-        <v>-153.1789078061049</v>
-      </c>
-      <c r="D17" t="n">
-        <v>215.4274363773978</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -865,12 +759,6 @@
       </c>
       <c r="B18" t="n">
         <v>23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-150.3585970363426</v>
-      </c>
-      <c r="D18" t="n">
-        <v>213.0587825959998</v>
       </c>
     </row>
   </sheetData>
